--- a/Code/Results/Cases/Case_4_244/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_244/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002772606377527</v>
+        <v>1.042727768088382</v>
       </c>
       <c r="D2">
-        <v>1.024540734584942</v>
+        <v>1.048006095694486</v>
       </c>
       <c r="E2">
-        <v>1.010929527974326</v>
+        <v>1.046388445312651</v>
       </c>
       <c r="F2">
-        <v>1.0289389834981</v>
+        <v>1.057124699801312</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050137333948166</v>
+        <v>1.040921202142737</v>
       </c>
       <c r="J2">
-        <v>1.024870704336421</v>
+        <v>1.047802032567034</v>
       </c>
       <c r="K2">
-        <v>1.035668445746746</v>
+        <v>1.05076714652594</v>
       </c>
       <c r="L2">
-        <v>1.022238668462226</v>
+        <v>1.049154020425594</v>
       </c>
       <c r="M2">
-        <v>1.040009353271135</v>
+        <v>1.059860528130246</v>
       </c>
       <c r="N2">
-        <v>1.011260756550482</v>
+        <v>1.01968522104141</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009493292427505</v>
+        <v>1.044082252104491</v>
       </c>
       <c r="D3">
-        <v>1.029631256567278</v>
+        <v>1.049036399822995</v>
       </c>
       <c r="E3">
-        <v>1.017135917782517</v>
+        <v>1.047692616836325</v>
       </c>
       <c r="F3">
-        <v>1.034629056277717</v>
+        <v>1.058301770465155</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052365830253123</v>
+        <v>1.04126433826696</v>
       </c>
       <c r="J3">
-        <v>1.029728464221296</v>
+        <v>1.048801062458678</v>
       </c>
       <c r="K3">
-        <v>1.039898534139597</v>
+        <v>1.051608843653737</v>
       </c>
       <c r="L3">
-        <v>1.027554137535331</v>
+        <v>1.050268544946509</v>
       </c>
       <c r="M3">
-        <v>1.044837224932199</v>
+        <v>1.060850449907363</v>
       </c>
       <c r="N3">
-        <v>1.012969831118761</v>
+        <v>1.020028347773158</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013722576529214</v>
+        <v>1.044957888180578</v>
       </c>
       <c r="D4">
-        <v>1.032836601178292</v>
+        <v>1.049702145237498</v>
       </c>
       <c r="E4">
-        <v>1.02104735762063</v>
+        <v>1.048536061323979</v>
       </c>
       <c r="F4">
-        <v>1.038214551302801</v>
+        <v>1.059062745425296</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053753693409202</v>
+        <v>1.041484329366623</v>
       </c>
       <c r="J4">
-        <v>1.032781653990079</v>
+        <v>1.049446249338465</v>
       </c>
       <c r="K4">
-        <v>1.042554234202565</v>
+        <v>1.052151945423013</v>
       </c>
       <c r="L4">
-        <v>1.030898226505526</v>
+        <v>1.050988731580584</v>
       </c>
       <c r="M4">
-        <v>1.047872640733898</v>
+        <v>1.061489752605553</v>
       </c>
       <c r="N4">
-        <v>1.014042774200704</v>
+        <v>1.020249664368951</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01547342654615</v>
+        <v>1.045325817080077</v>
       </c>
       <c r="D5">
-        <v>1.034163914633643</v>
+        <v>1.049981804269934</v>
       </c>
       <c r="E5">
-        <v>1.022667955006771</v>
+        <v>1.048890543199007</v>
       </c>
       <c r="F5">
-        <v>1.039699925927394</v>
+        <v>1.059382502004516</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054324694160727</v>
+        <v>1.041576326088189</v>
       </c>
       <c r="J5">
-        <v>1.034044657781757</v>
+        <v>1.049717189013697</v>
       </c>
       <c r="K5">
-        <v>1.043652066102684</v>
+        <v>1.052379900776649</v>
       </c>
       <c r="L5">
-        <v>1.032282343766461</v>
+        <v>1.051291265335152</v>
       </c>
       <c r="M5">
-        <v>1.049128506443291</v>
+        <v>1.061758220420542</v>
       </c>
       <c r="N5">
-        <v>1.01448630026713</v>
+        <v>1.020342536953464</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01576585069422</v>
+        <v>1.045387583033795</v>
       </c>
       <c r="D6">
-        <v>1.034385618492949</v>
+        <v>1.050028747399625</v>
       </c>
       <c r="E6">
-        <v>1.022938701018593</v>
+        <v>1.048950056376339</v>
       </c>
       <c r="F6">
-        <v>1.03994806922948</v>
+        <v>1.05943618139666</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054419851075656</v>
+        <v>1.041591744183876</v>
       </c>
       <c r="J6">
-        <v>1.034255544291784</v>
+        <v>1.04976266365182</v>
       </c>
       <c r="K6">
-        <v>1.043835329007182</v>
+        <v>1.052418154167093</v>
       </c>
       <c r="L6">
-        <v>1.032513498776889</v>
+        <v>1.051342048529489</v>
       </c>
       <c r="M6">
-        <v>1.049338212912588</v>
+        <v>1.061803280119407</v>
       </c>
       <c r="N6">
-        <v>1.014560337765463</v>
+        <v>1.020358120790212</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013746076274545</v>
+        <v>1.044962805199819</v>
       </c>
       <c r="D7">
-        <v>1.032854414975569</v>
+        <v>1.049705882918044</v>
       </c>
       <c r="E7">
-        <v>1.02106910394706</v>
+        <v>1.048540798325257</v>
       </c>
       <c r="F7">
-        <v>1.038234483869985</v>
+        <v>1.059067018643028</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053761371461666</v>
+        <v>1.041485560545703</v>
       </c>
       <c r="J7">
-        <v>1.032798609797938</v>
+        <v>1.049449870810641</v>
       </c>
       <c r="K7">
-        <v>1.042568975557437</v>
+        <v>1.052154992803558</v>
       </c>
       <c r="L7">
-        <v>1.030916805173609</v>
+        <v>1.050992774961874</v>
       </c>
       <c r="M7">
-        <v>1.047889499900633</v>
+        <v>1.061493341041841</v>
       </c>
       <c r="N7">
-        <v>1.014048729801023</v>
+        <v>1.020250905999556</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005069538358698</v>
+        <v>1.043185691753339</v>
       </c>
       <c r="D8">
-        <v>1.026280056885196</v>
+        <v>1.048354485841068</v>
       </c>
       <c r="E8">
-        <v>1.013049427128692</v>
+        <v>1.046829289785686</v>
       </c>
       <c r="F8">
-        <v>1.030882612352095</v>
+        <v>1.057522636407154</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050901984506828</v>
+        <v>1.041037589830685</v>
       </c>
       <c r="J8">
-        <v>1.026531699201898</v>
+        <v>1.048139920438766</v>
       </c>
       <c r="K8">
-        <v>1.037115436468524</v>
+        <v>1.051051920705431</v>
       </c>
       <c r="L8">
-        <v>1.024055489948697</v>
+        <v>1.04953088511974</v>
       </c>
       <c r="M8">
-        <v>1.041659897350518</v>
+        <v>1.060195335692854</v>
       </c>
       <c r="N8">
-        <v>1.011845384697413</v>
+        <v>1.019801329747975</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9887938178584353</v>
+        <v>1.040047824282761</v>
       </c>
       <c r="D9">
-        <v>1.013968327072963</v>
+        <v>1.045965920149088</v>
       </c>
       <c r="E9">
-        <v>0.9980559453758175</v>
+        <v>1.043809850322766</v>
       </c>
       <c r="F9">
-        <v>1.017135526482283</v>
+        <v>1.054795994402777</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045424251361857</v>
+        <v>1.040232529014877</v>
       </c>
       <c r="J9">
-        <v>1.014748597418516</v>
+        <v>1.045821898895893</v>
       </c>
       <c r="K9">
-        <v>1.026838771333809</v>
+        <v>1.049096326903524</v>
       </c>
       <c r="L9">
-        <v>1.01118064245148</v>
+        <v>1.046947160084611</v>
       </c>
       <c r="M9">
-        <v>1.029956577402109</v>
+        <v>1.057898452162483</v>
       </c>
       <c r="N9">
-        <v>1.007693430902253</v>
+        <v>1.019003645390949</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9771685218992618</v>
+        <v>1.037951355787452</v>
       </c>
       <c r="D10">
-        <v>1.005196541212236</v>
+        <v>1.044368528942411</v>
       </c>
       <c r="E10">
-        <v>0.9873856670881497</v>
+        <v>1.041794282774575</v>
       </c>
       <c r="F10">
-        <v>1.007354363398044</v>
+        <v>1.052974532246122</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04143900861392</v>
+        <v>1.039685210911379</v>
       </c>
       <c r="J10">
-        <v>1.006318217641158</v>
+        <v>1.044269829825024</v>
       </c>
       <c r="K10">
-        <v>1.019472600123632</v>
+        <v>1.047784491808407</v>
       </c>
       <c r="L10">
-        <v>1.001986474536203</v>
+        <v>1.045219306001759</v>
       </c>
       <c r="M10">
-        <v>1.021592090113085</v>
+        <v>1.056360559281452</v>
       </c>
       <c r="N10">
-        <v>1.004717859020566</v>
+        <v>1.018468117664538</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9719221206820814</v>
+        <v>1.037042418834361</v>
       </c>
       <c r="D11">
-        <v>1.001245198305774</v>
+        <v>1.043675616928875</v>
       </c>
       <c r="E11">
-        <v>0.9825808438774449</v>
+        <v>1.040920850193929</v>
       </c>
       <c r="F11">
-        <v>1.002951304122256</v>
+        <v>1.052184901278886</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039624470259354</v>
+        <v>1.039445683450738</v>
       </c>
       <c r="J11">
-        <v>1.002511489196075</v>
+        <v>1.043596130677765</v>
       </c>
       <c r="K11">
-        <v>1.016143670153789</v>
+        <v>1.047214496997537</v>
       </c>
       <c r="L11">
-        <v>0.997838910133294</v>
+        <v>1.044469806690052</v>
       </c>
       <c r="M11">
-        <v>1.0178177769679</v>
+        <v>1.055693023785115</v>
       </c>
       <c r="N11">
-        <v>1.003373360856266</v>
+        <v>1.018235328393339</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9699386425936057</v>
+        <v>1.036704620624987</v>
       </c>
       <c r="D12">
-        <v>0.9997526239227041</v>
+        <v>1.043418050503407</v>
       </c>
       <c r="E12">
-        <v>0.9807660240705076</v>
+        <v>1.040596312013957</v>
       </c>
       <c r="F12">
-        <v>1.001288528556906</v>
+        <v>1.051891454534432</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038936163928804</v>
+        <v>1.03935632996433</v>
       </c>
       <c r="J12">
-        <v>1.001072085371386</v>
+        <v>1.043345638273905</v>
       </c>
       <c r="K12">
-        <v>1.01488456480277</v>
+        <v>1.04700247789046</v>
       </c>
       <c r="L12">
-        <v>0.9962712327405245</v>
+        <v>1.044191205874916</v>
       </c>
       <c r="M12">
-        <v>1.016391083959273</v>
+        <v>1.055444825072325</v>
       </c>
       <c r="N12">
-        <v>1.002864873388147</v>
+        <v>1.018148723362786</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9703657255488185</v>
+        <v>1.036777087655226</v>
       </c>
       <c r="D13">
-        <v>1.000073943947824</v>
+        <v>1.043473307935701</v>
       </c>
       <c r="E13">
-        <v>0.9811567120433909</v>
+        <v>1.040665931443765</v>
       </c>
       <c r="F13">
-        <v>1.001646470217536</v>
+        <v>1.051954406369484</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039084471795271</v>
+        <v>1.039375513914811</v>
       </c>
       <c r="J13">
-        <v>1.001382025941597</v>
+        <v>1.043399381142192</v>
       </c>
       <c r="K13">
-        <v>1.015155698294817</v>
+        <v>1.047047970225823</v>
       </c>
       <c r="L13">
-        <v>0.9966087667341769</v>
+        <v>1.044250975964534</v>
       </c>
       <c r="M13">
-        <v>1.016698266151353</v>
+        <v>1.055498075737302</v>
       </c>
       <c r="N13">
-        <v>1.002974368033006</v>
+        <v>1.018167306642191</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9717588916116637</v>
+        <v>1.037014500003032</v>
       </c>
       <c r="D14">
-        <v>1.001122340541222</v>
+        <v>1.043654330261989</v>
       </c>
       <c r="E14">
-        <v>0.9824314589271843</v>
+        <v>1.040894025963927</v>
       </c>
       <c r="F14">
-        <v>1.002814428028703</v>
+        <v>1.05216064780998</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039567872361132</v>
+        <v>1.039438305271379</v>
       </c>
       <c r="J14">
-        <v>1.002393038056707</v>
+        <v>1.043575430030043</v>
       </c>
       <c r="K14">
-        <v>1.016040063276063</v>
+        <v>1.047196977521245</v>
       </c>
       <c r="L14">
-        <v>0.9977098909147634</v>
+        <v>1.044446781632381</v>
       </c>
       <c r="M14">
-        <v>1.017700362287304</v>
+        <v>1.055672512645638</v>
       </c>
       <c r="N14">
-        <v>1.003331518456874</v>
+        <v>1.018228172390606</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9726125757699078</v>
+        <v>1.037160753762639</v>
       </c>
       <c r="D15">
-        <v>1.001764937296258</v>
+        <v>1.043765839080005</v>
       </c>
       <c r="E15">
-        <v>0.9832128090917589</v>
+        <v>1.041034548288146</v>
       </c>
       <c r="F15">
-        <v>1.003530363792836</v>
+        <v>1.052287700959862</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039863785465347</v>
+        <v>1.039476942393471</v>
       </c>
       <c r="J15">
-        <v>1.003012526646776</v>
+        <v>1.043683866249517</v>
       </c>
       <c r="K15">
-        <v>1.016581903089758</v>
+        <v>1.04728874630288</v>
       </c>
       <c r="L15">
-        <v>0.9983846741025042</v>
+        <v>1.044567396893718</v>
       </c>
       <c r="M15">
-        <v>1.018314449083181</v>
+        <v>1.055779956245905</v>
       </c>
       <c r="N15">
-        <v>1.003550346287676</v>
+        <v>1.018265655633506</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9775119984916656</v>
+        <v>1.038011654199025</v>
       </c>
       <c r="D16">
-        <v>1.005455398494526</v>
+        <v>1.04441448902956</v>
       </c>
       <c r="E16">
-        <v>0.9877004633880845</v>
+        <v>1.041852234940016</v>
       </c>
       <c r="F16">
-        <v>1.007642873350383</v>
+        <v>1.053026917644255</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041557481879279</v>
+        <v>1.039701054024661</v>
       </c>
       <c r="J16">
-        <v>1.00656740446983</v>
+        <v>1.044314506087106</v>
       </c>
       <c r="K16">
-        <v>1.019690457331049</v>
+        <v>1.047822278907409</v>
       </c>
       <c r="L16">
-        <v>1.002258055848596</v>
+        <v>1.045269019499906</v>
       </c>
       <c r="M16">
-        <v>1.021839214605638</v>
+        <v>1.056404827052286</v>
       </c>
       <c r="N16">
-        <v>1.004805853335037</v>
+        <v>1.018483548012248</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9805264930398284</v>
+        <v>1.038545089237457</v>
       </c>
       <c r="D17">
-        <v>1.007728083893543</v>
+        <v>1.044821038232197</v>
       </c>
       <c r="E17">
-        <v>0.9904644574823186</v>
+        <v>1.042364963350933</v>
       </c>
       <c r="F17">
-        <v>1.010176233702233</v>
+        <v>1.053490358370702</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042595454120033</v>
+        <v>1.039840953588346</v>
       </c>
       <c r="J17">
-        <v>1.008754139874774</v>
+        <v>1.044709647311991</v>
       </c>
       <c r="K17">
-        <v>1.021601955169322</v>
+        <v>1.048156422571097</v>
       </c>
       <c r="L17">
-        <v>1.004641770859064</v>
+        <v>1.045708770694145</v>
       </c>
       <c r="M17">
-        <v>1.024008158673913</v>
+        <v>1.056796356592193</v>
       </c>
       <c r="N17">
-        <v>1.005577949700017</v>
+        <v>1.018619983760751</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9822644919409985</v>
+        <v>1.038856122063905</v>
       </c>
       <c r="D18">
-        <v>1.009039067597898</v>
+        <v>1.045058052933854</v>
       </c>
       <c r="E18">
-        <v>0.9920590187387112</v>
+        <v>1.042663963995444</v>
       </c>
       <c r="F18">
-        <v>1.011637866826917</v>
+        <v>1.053760586418257</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043192377607318</v>
+        <v>1.039922310134761</v>
       </c>
       <c r="J18">
-        <v>1.010014684773673</v>
+        <v>1.044939968229922</v>
       </c>
       <c r="K18">
-        <v>1.022703577956551</v>
+        <v>1.048351133856447</v>
       </c>
       <c r="L18">
-        <v>1.006016246308062</v>
+        <v>1.045965142354288</v>
       </c>
       <c r="M18">
-        <v>1.025258694400701</v>
+        <v>1.057024573283664</v>
       </c>
       <c r="N18">
-        <v>1.006022940197412</v>
+        <v>1.018699477452728</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9828537402284599</v>
+        <v>1.038962157588975</v>
       </c>
       <c r="D19">
-        <v>1.009483650099906</v>
+        <v>1.045138848803478</v>
       </c>
       <c r="E19">
-        <v>0.9925998002752869</v>
+        <v>1.042765904570558</v>
       </c>
       <c r="F19">
-        <v>1.012133585858648</v>
+        <v>1.05385271219493</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043394497061606</v>
+        <v>1.039950009186332</v>
       </c>
       <c r="J19">
-        <v>1.010442018839092</v>
+        <v>1.045018474976315</v>
       </c>
       <c r="K19">
-        <v>1.023076990659375</v>
+        <v>1.048417493393711</v>
       </c>
       <c r="L19">
-        <v>1.006482268544175</v>
+        <v>1.046052536913731</v>
       </c>
       <c r="M19">
-        <v>1.025682675608606</v>
+        <v>1.057102362938331</v>
       </c>
       <c r="N19">
-        <v>1.006173780076841</v>
+        <v>1.018726568030909</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9802051856744235</v>
+        <v>1.03848786820835</v>
       </c>
       <c r="D20">
-        <v>1.007485772875024</v>
+        <v>1.04477743163807</v>
       </c>
       <c r="E20">
-        <v>0.9901697468752758</v>
+        <v>1.042309959218832</v>
       </c>
       <c r="F20">
-        <v>1.009906100776979</v>
+        <v>1.053440644808367</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042484976079112</v>
+        <v>1.039825968990221</v>
       </c>
       <c r="J20">
-        <v>1.008521082508215</v>
+        <v>1.044667268797053</v>
       </c>
       <c r="K20">
-        <v>1.021398258845868</v>
+        <v>1.048120591696083</v>
       </c>
       <c r="L20">
-        <v>1.004387680238588</v>
+        <v>1.045661602799112</v>
       </c>
       <c r="M20">
-        <v>1.023776971474285</v>
+        <v>1.056754365324542</v>
       </c>
       <c r="N20">
-        <v>1.005495670027116</v>
+        <v>1.018605354501012</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.971349621790967</v>
+        <v>1.036944592956773</v>
       </c>
       <c r="D21">
-        <v>1.000814316479952</v>
+        <v>1.043601028914892</v>
       </c>
       <c r="E21">
-        <v>0.9820569289387734</v>
+        <v>1.040826860787015</v>
       </c>
       <c r="F21">
-        <v>1.002471264627153</v>
+        <v>1.052099918812514</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039425926033322</v>
+        <v>1.039419825347592</v>
       </c>
       <c r="J21">
-        <v>1.002096038410027</v>
+        <v>1.043523594966568</v>
       </c>
       <c r="K21">
-        <v>1.015780277791897</v>
+        <v>1.047153106827223</v>
       </c>
       <c r="L21">
-        <v>0.9973864029810505</v>
+        <v>1.044389127390744</v>
       </c>
       <c r="M21">
-        <v>1.017405968909761</v>
+        <v>1.055621152149464</v>
       </c>
       <c r="N21">
-        <v>1.00322660291653</v>
+        <v>1.018210252728678</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9655791962149116</v>
+        <v>1.035973238776411</v>
       </c>
       <c r="D22">
-        <v>0.9964747299304028</v>
+        <v>1.042860288271819</v>
       </c>
       <c r="E22">
-        <v>0.97678057481518</v>
+        <v>1.03989375992609</v>
       </c>
       <c r="F22">
-        <v>0.9976376225638326</v>
+        <v>1.051256124090332</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037419256175034</v>
+        <v>1.039162253991785</v>
       </c>
       <c r="J22">
-        <v>0.9979081848813141</v>
+        <v>1.042803070415905</v>
       </c>
       <c r="K22">
-        <v>1.012116348090661</v>
+        <v>1.046543087070916</v>
       </c>
       <c r="L22">
-        <v>0.9928264863254546</v>
+        <v>1.043587892783454</v>
       </c>
       <c r="M22">
-        <v>1.013256024328925</v>
+        <v>1.054907229358055</v>
       </c>
       <c r="N22">
-        <v>1.001747025831715</v>
+        <v>1.017961044893762</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9686584335345643</v>
+        <v>1.036488272009132</v>
       </c>
       <c r="D23">
-        <v>0.9987896508373074</v>
+        <v>1.043253073218876</v>
       </c>
       <c r="E23">
-        <v>0.9795951726499923</v>
+        <v>1.040388474432551</v>
       </c>
       <c r="F23">
-        <v>1.000215864694716</v>
+        <v>1.051703515225689</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038491274603634</v>
+        <v>1.039299007669271</v>
       </c>
       <c r="J23">
-        <v>1.000142995896881</v>
+        <v>1.043185172932456</v>
       </c>
       <c r="K23">
-        <v>1.014071754750147</v>
+        <v>1.046866634456044</v>
       </c>
       <c r="L23">
-        <v>0.995259516277002</v>
+        <v>1.044012755494061</v>
       </c>
       <c r="M23">
-        <v>1.015470334100902</v>
+        <v>1.055285829665999</v>
       </c>
       <c r="N23">
-        <v>1.002536635078261</v>
+        <v>1.018093230119039</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9803504331830574</v>
+        <v>1.03851372427041</v>
       </c>
       <c r="D24">
-        <v>1.007595307883201</v>
+        <v>1.044797135947185</v>
       </c>
       <c r="E24">
-        <v>0.9903029682184972</v>
+        <v>1.042334813419628</v>
       </c>
       <c r="F24">
-        <v>1.010028211611335</v>
+        <v>1.053463108502424</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042534922572651</v>
+        <v>1.039832740640522</v>
       </c>
       <c r="J24">
-        <v>1.008626437129084</v>
+        <v>1.044686418312644</v>
       </c>
       <c r="K24">
-        <v>1.021490341491092</v>
+        <v>1.048136782710215</v>
       </c>
       <c r="L24">
-        <v>1.004502541850289</v>
+        <v>1.045682916335151</v>
       </c>
       <c r="M24">
-        <v>1.023881479915832</v>
+        <v>1.056773339852362</v>
       </c>
       <c r="N24">
-        <v>1.005532865185578</v>
+        <v>1.018611965102463</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.993129170607872</v>
+        <v>1.040859821069096</v>
       </c>
       <c r="D25">
-        <v>1.01724463077731</v>
+        <v>1.046584294172724</v>
       </c>
       <c r="E25">
-        <v>1.002043458895464</v>
+        <v>1.044590890815755</v>
       </c>
       <c r="F25">
-        <v>1.020791471569194</v>
+        <v>1.055501536060084</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046896110678024</v>
+        <v>1.04044252166813</v>
       </c>
       <c r="J25">
-        <v>1.017889998872916</v>
+        <v>1.046422334074884</v>
       </c>
       <c r="K25">
-        <v>1.029581016769677</v>
+        <v>1.049603312763479</v>
       </c>
       <c r="L25">
-        <v>1.01461013540458</v>
+        <v>1.047616046717809</v>
       </c>
       <c r="M25">
-        <v>1.033075378158868</v>
+        <v>1.058493409584187</v>
       </c>
       <c r="N25">
-        <v>1.008801296906604</v>
+        <v>1.019210520515105</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_244/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_244/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042727768088382</v>
+        <v>1.002772606377527</v>
       </c>
       <c r="D2">
-        <v>1.048006095694486</v>
+        <v>1.024540734584941</v>
       </c>
       <c r="E2">
-        <v>1.046388445312651</v>
+        <v>1.010929527974326</v>
       </c>
       <c r="F2">
-        <v>1.057124699801312</v>
+        <v>1.0289389834981</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040921202142737</v>
+        <v>1.050137333948166</v>
       </c>
       <c r="J2">
-        <v>1.047802032567034</v>
+        <v>1.024870704336421</v>
       </c>
       <c r="K2">
-        <v>1.05076714652594</v>
+        <v>1.035668445746745</v>
       </c>
       <c r="L2">
-        <v>1.049154020425594</v>
+        <v>1.022238668462225</v>
       </c>
       <c r="M2">
-        <v>1.059860528130246</v>
+        <v>1.040009353271135</v>
       </c>
       <c r="N2">
-        <v>1.01968522104141</v>
+        <v>1.011260756550482</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044082252104491</v>
+        <v>1.009493292427506</v>
       </c>
       <c r="D3">
-        <v>1.049036399822995</v>
+        <v>1.029631256567279</v>
       </c>
       <c r="E3">
-        <v>1.047692616836325</v>
+        <v>1.017135917782518</v>
       </c>
       <c r="F3">
-        <v>1.058301770465155</v>
+        <v>1.034629056277719</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04126433826696</v>
+        <v>1.052365830253124</v>
       </c>
       <c r="J3">
-        <v>1.048801062458678</v>
+        <v>1.029728464221297</v>
       </c>
       <c r="K3">
-        <v>1.051608843653737</v>
+        <v>1.039898534139598</v>
       </c>
       <c r="L3">
-        <v>1.050268544946509</v>
+        <v>1.027554137535333</v>
       </c>
       <c r="M3">
-        <v>1.060850449907363</v>
+        <v>1.044837224932201</v>
       </c>
       <c r="N3">
-        <v>1.020028347773158</v>
+        <v>1.012969831118762</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044957888180578</v>
+        <v>1.013722576529214</v>
       </c>
       <c r="D4">
-        <v>1.049702145237498</v>
+        <v>1.032836601178291</v>
       </c>
       <c r="E4">
-        <v>1.048536061323979</v>
+        <v>1.02104735762063</v>
       </c>
       <c r="F4">
-        <v>1.059062745425296</v>
+        <v>1.038214551302801</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041484329366623</v>
+        <v>1.053753693409202</v>
       </c>
       <c r="J4">
-        <v>1.049446249338465</v>
+        <v>1.032781653990079</v>
       </c>
       <c r="K4">
-        <v>1.052151945423013</v>
+        <v>1.042554234202564</v>
       </c>
       <c r="L4">
-        <v>1.050988731580584</v>
+        <v>1.030898226505526</v>
       </c>
       <c r="M4">
-        <v>1.061489752605553</v>
+        <v>1.047872640733899</v>
       </c>
       <c r="N4">
-        <v>1.020249664368951</v>
+        <v>1.014042774200704</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.045325817080077</v>
+        <v>1.01547342654615</v>
       </c>
       <c r="D5">
-        <v>1.049981804269934</v>
+        <v>1.034163914633643</v>
       </c>
       <c r="E5">
-        <v>1.048890543199007</v>
+        <v>1.022667955006771</v>
       </c>
       <c r="F5">
-        <v>1.059382502004516</v>
+        <v>1.039699925927394</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041576326088189</v>
+        <v>1.054324694160727</v>
       </c>
       <c r="J5">
-        <v>1.049717189013697</v>
+        <v>1.034044657781757</v>
       </c>
       <c r="K5">
-        <v>1.052379900776649</v>
+        <v>1.043652066102685</v>
       </c>
       <c r="L5">
-        <v>1.051291265335152</v>
+        <v>1.032282343766462</v>
       </c>
       <c r="M5">
-        <v>1.061758220420542</v>
+        <v>1.049128506443292</v>
       </c>
       <c r="N5">
-        <v>1.020342536953464</v>
+        <v>1.01448630026713</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045387583033795</v>
+        <v>1.015765850694219</v>
       </c>
       <c r="D6">
-        <v>1.050028747399625</v>
+        <v>1.034385618492948</v>
       </c>
       <c r="E6">
-        <v>1.048950056376339</v>
+        <v>1.022938701018592</v>
       </c>
       <c r="F6">
-        <v>1.05943618139666</v>
+        <v>1.039948069229479</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041591744183876</v>
+        <v>1.054419851075655</v>
       </c>
       <c r="J6">
-        <v>1.04976266365182</v>
+        <v>1.034255544291783</v>
       </c>
       <c r="K6">
-        <v>1.052418154167093</v>
+        <v>1.043835329007181</v>
       </c>
       <c r="L6">
-        <v>1.051342048529489</v>
+        <v>1.032513498776888</v>
       </c>
       <c r="M6">
-        <v>1.061803280119407</v>
+        <v>1.049338212912588</v>
       </c>
       <c r="N6">
-        <v>1.020358120790212</v>
+        <v>1.014560337765463</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044962805199819</v>
+        <v>1.013746076274545</v>
       </c>
       <c r="D7">
-        <v>1.049705882918044</v>
+        <v>1.032854414975569</v>
       </c>
       <c r="E7">
-        <v>1.048540798325257</v>
+        <v>1.02106910394706</v>
       </c>
       <c r="F7">
-        <v>1.059067018643028</v>
+        <v>1.038234483869986</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041485560545703</v>
+        <v>1.053761371461666</v>
       </c>
       <c r="J7">
-        <v>1.049449870810641</v>
+        <v>1.032798609797939</v>
       </c>
       <c r="K7">
-        <v>1.052154992803558</v>
+        <v>1.042568975557437</v>
       </c>
       <c r="L7">
-        <v>1.050992774961874</v>
+        <v>1.03091680517361</v>
       </c>
       <c r="M7">
-        <v>1.061493341041841</v>
+        <v>1.047889499900634</v>
       </c>
       <c r="N7">
-        <v>1.020250905999556</v>
+        <v>1.014048729801023</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043185691753339</v>
+        <v>1.005069538358698</v>
       </c>
       <c r="D8">
-        <v>1.048354485841068</v>
+        <v>1.026280056885196</v>
       </c>
       <c r="E8">
-        <v>1.046829289785686</v>
+        <v>1.013049427128692</v>
       </c>
       <c r="F8">
-        <v>1.057522636407154</v>
+        <v>1.030882612352094</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041037589830685</v>
+        <v>1.050901984506828</v>
       </c>
       <c r="J8">
-        <v>1.048139920438766</v>
+        <v>1.026531699201897</v>
       </c>
       <c r="K8">
-        <v>1.051051920705431</v>
+        <v>1.037115436468524</v>
       </c>
       <c r="L8">
-        <v>1.04953088511974</v>
+        <v>1.024055489948697</v>
       </c>
       <c r="M8">
-        <v>1.060195335692854</v>
+        <v>1.041659897350518</v>
       </c>
       <c r="N8">
-        <v>1.019801329747975</v>
+        <v>1.011845384697412</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040047824282761</v>
+        <v>0.988793817858435</v>
       </c>
       <c r="D9">
-        <v>1.045965920149088</v>
+        <v>1.013968327072963</v>
       </c>
       <c r="E9">
-        <v>1.043809850322766</v>
+        <v>0.9980559453758175</v>
       </c>
       <c r="F9">
-        <v>1.054795994402777</v>
+        <v>1.017135526482283</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040232529014877</v>
+        <v>1.045424251361857</v>
       </c>
       <c r="J9">
-        <v>1.045821898895893</v>
+        <v>1.014748597418516</v>
       </c>
       <c r="K9">
-        <v>1.049096326903524</v>
+        <v>1.026838771333809</v>
       </c>
       <c r="L9">
-        <v>1.046947160084611</v>
+        <v>1.01118064245148</v>
       </c>
       <c r="M9">
-        <v>1.057898452162483</v>
+        <v>1.029956577402108</v>
       </c>
       <c r="N9">
-        <v>1.019003645390949</v>
+        <v>1.007693430902253</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037951355787452</v>
+        <v>0.9771685218992613</v>
       </c>
       <c r="D10">
-        <v>1.044368528942411</v>
+        <v>1.005196541212235</v>
       </c>
       <c r="E10">
-        <v>1.041794282774575</v>
+        <v>0.9873856670881486</v>
       </c>
       <c r="F10">
-        <v>1.052974532246122</v>
+        <v>1.007354363398043</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039685210911379</v>
+        <v>1.04143900861392</v>
       </c>
       <c r="J10">
-        <v>1.044269829825024</v>
+        <v>1.006318217641158</v>
       </c>
       <c r="K10">
-        <v>1.047784491808407</v>
+        <v>1.019472600123631</v>
       </c>
       <c r="L10">
-        <v>1.045219306001759</v>
+        <v>1.001986474536202</v>
       </c>
       <c r="M10">
-        <v>1.056360559281452</v>
+        <v>1.021592090113084</v>
       </c>
       <c r="N10">
-        <v>1.018468117664538</v>
+        <v>1.004717859020565</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037042418834361</v>
+        <v>0.9719221206820814</v>
       </c>
       <c r="D11">
-        <v>1.043675616928875</v>
+        <v>1.001245198305774</v>
       </c>
       <c r="E11">
-        <v>1.040920850193929</v>
+        <v>0.9825808438774453</v>
       </c>
       <c r="F11">
-        <v>1.052184901278886</v>
+        <v>1.002951304122256</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039445683450738</v>
+        <v>1.039624470259354</v>
       </c>
       <c r="J11">
-        <v>1.043596130677765</v>
+        <v>1.002511489196075</v>
       </c>
       <c r="K11">
-        <v>1.047214496997537</v>
+        <v>1.016143670153789</v>
       </c>
       <c r="L11">
-        <v>1.044469806690052</v>
+        <v>0.9978389101332941</v>
       </c>
       <c r="M11">
-        <v>1.055693023785115</v>
+        <v>1.0178177769679</v>
       </c>
       <c r="N11">
-        <v>1.018235328393339</v>
+        <v>1.003373360856266</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036704620624987</v>
+        <v>0.9699386425936068</v>
       </c>
       <c r="D12">
-        <v>1.043418050503407</v>
+        <v>0.9997526239227055</v>
       </c>
       <c r="E12">
-        <v>1.040596312013957</v>
+        <v>0.9807660240705092</v>
       </c>
       <c r="F12">
-        <v>1.051891454534432</v>
+        <v>1.001288528556907</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03935632996433</v>
+        <v>1.038936163928806</v>
       </c>
       <c r="J12">
-        <v>1.043345638273905</v>
+        <v>1.001072085371387</v>
       </c>
       <c r="K12">
-        <v>1.04700247789046</v>
+        <v>1.014884564802771</v>
       </c>
       <c r="L12">
-        <v>1.044191205874916</v>
+        <v>0.9962712327405259</v>
       </c>
       <c r="M12">
-        <v>1.055444825072325</v>
+        <v>1.016391083959275</v>
       </c>
       <c r="N12">
-        <v>1.018148723362786</v>
+        <v>1.002864873388148</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036777087655226</v>
+        <v>0.9703657255488199</v>
       </c>
       <c r="D13">
-        <v>1.043473307935701</v>
+        <v>1.000073943947825</v>
       </c>
       <c r="E13">
-        <v>1.040665931443765</v>
+        <v>0.9811567120433923</v>
       </c>
       <c r="F13">
-        <v>1.051954406369484</v>
+        <v>1.001646470217537</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039375513914811</v>
+        <v>1.039084471795272</v>
       </c>
       <c r="J13">
-        <v>1.043399381142192</v>
+        <v>1.001382025941598</v>
       </c>
       <c r="K13">
-        <v>1.047047970225823</v>
+        <v>1.015155698294818</v>
       </c>
       <c r="L13">
-        <v>1.044250975964534</v>
+        <v>0.9966087667341781</v>
       </c>
       <c r="M13">
-        <v>1.055498075737302</v>
+        <v>1.016698266151354</v>
       </c>
       <c r="N13">
-        <v>1.018167306642191</v>
+        <v>1.002974368033006</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037014500003032</v>
+        <v>0.9717588916116636</v>
       </c>
       <c r="D14">
-        <v>1.043654330261989</v>
+        <v>1.001122340541223</v>
       </c>
       <c r="E14">
-        <v>1.040894025963927</v>
+        <v>0.9824314589271843</v>
       </c>
       <c r="F14">
-        <v>1.05216064780998</v>
+        <v>1.002814428028703</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039438305271379</v>
+        <v>1.039567872361132</v>
       </c>
       <c r="J14">
-        <v>1.043575430030043</v>
+        <v>1.002393038056706</v>
       </c>
       <c r="K14">
-        <v>1.047196977521245</v>
+        <v>1.016040063276063</v>
       </c>
       <c r="L14">
-        <v>1.044446781632381</v>
+        <v>0.9977098909147631</v>
       </c>
       <c r="M14">
-        <v>1.055672512645638</v>
+        <v>1.017700362287304</v>
       </c>
       <c r="N14">
-        <v>1.018228172390606</v>
+        <v>1.003331518456874</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037160753762639</v>
+        <v>0.9726125757699076</v>
       </c>
       <c r="D15">
-        <v>1.043765839080005</v>
+        <v>1.001764937296257</v>
       </c>
       <c r="E15">
-        <v>1.041034548288146</v>
+        <v>0.9832128090917589</v>
       </c>
       <c r="F15">
-        <v>1.052287700959862</v>
+        <v>1.003530363792836</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039476942393471</v>
+        <v>1.039863785465346</v>
       </c>
       <c r="J15">
-        <v>1.043683866249517</v>
+        <v>1.003012526646776</v>
       </c>
       <c r="K15">
-        <v>1.04728874630288</v>
+        <v>1.016581903089758</v>
       </c>
       <c r="L15">
-        <v>1.044567396893718</v>
+        <v>0.9983846741025042</v>
       </c>
       <c r="M15">
-        <v>1.055779956245905</v>
+        <v>1.018314449083181</v>
       </c>
       <c r="N15">
-        <v>1.018265655633506</v>
+        <v>1.003550346287676</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038011654199025</v>
+        <v>0.9775119984916648</v>
       </c>
       <c r="D16">
-        <v>1.04441448902956</v>
+        <v>1.005455398494526</v>
       </c>
       <c r="E16">
-        <v>1.041852234940016</v>
+        <v>0.9877004633880837</v>
       </c>
       <c r="F16">
-        <v>1.053026917644255</v>
+        <v>1.007642873350383</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039701054024661</v>
+        <v>1.041557481879279</v>
       </c>
       <c r="J16">
-        <v>1.044314506087106</v>
+        <v>1.006567404469829</v>
       </c>
       <c r="K16">
-        <v>1.047822278907409</v>
+        <v>1.019690457331049</v>
       </c>
       <c r="L16">
-        <v>1.045269019499906</v>
+        <v>1.002258055848595</v>
       </c>
       <c r="M16">
-        <v>1.056404827052286</v>
+        <v>1.021839214605637</v>
       </c>
       <c r="N16">
-        <v>1.018483548012248</v>
+        <v>1.004805853335037</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038545089237457</v>
+        <v>0.980526493039827</v>
       </c>
       <c r="D17">
-        <v>1.044821038232197</v>
+        <v>1.007728083893542</v>
       </c>
       <c r="E17">
-        <v>1.042364963350933</v>
+        <v>0.9904644574823168</v>
       </c>
       <c r="F17">
-        <v>1.053490358370702</v>
+        <v>1.010176233702231</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039840953588346</v>
+        <v>1.042595454120032</v>
       </c>
       <c r="J17">
-        <v>1.044709647311991</v>
+        <v>1.008754139874772</v>
       </c>
       <c r="K17">
-        <v>1.048156422571097</v>
+        <v>1.021601955169321</v>
       </c>
       <c r="L17">
-        <v>1.045708770694145</v>
+        <v>1.004641770859062</v>
       </c>
       <c r="M17">
-        <v>1.056796356592193</v>
+        <v>1.024008158673911</v>
       </c>
       <c r="N17">
-        <v>1.018619983760751</v>
+        <v>1.005577949700017</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038856122063905</v>
+        <v>0.9822644919410006</v>
       </c>
       <c r="D18">
-        <v>1.045058052933854</v>
+        <v>1.0090390675979</v>
       </c>
       <c r="E18">
-        <v>1.042663963995444</v>
+        <v>0.9920590187387135</v>
       </c>
       <c r="F18">
-        <v>1.053760586418257</v>
+        <v>1.011637866826919</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039922310134761</v>
+        <v>1.043192377607319</v>
       </c>
       <c r="J18">
-        <v>1.044939968229922</v>
+        <v>1.010014684773675</v>
       </c>
       <c r="K18">
-        <v>1.048351133856447</v>
+        <v>1.022703577956553</v>
       </c>
       <c r="L18">
-        <v>1.045965142354288</v>
+        <v>1.006016246308064</v>
       </c>
       <c r="M18">
-        <v>1.057024573283664</v>
+        <v>1.025258694400703</v>
       </c>
       <c r="N18">
-        <v>1.018699477452728</v>
+        <v>1.006022940197413</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038962157588975</v>
+        <v>0.9828537402284599</v>
       </c>
       <c r="D19">
-        <v>1.045138848803478</v>
+        <v>1.009483650099906</v>
       </c>
       <c r="E19">
-        <v>1.042765904570558</v>
+        <v>0.9925998002752868</v>
       </c>
       <c r="F19">
-        <v>1.05385271219493</v>
+        <v>1.012133585858648</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039950009186332</v>
+        <v>1.043394497061606</v>
       </c>
       <c r="J19">
-        <v>1.045018474976315</v>
+        <v>1.010442018839092</v>
       </c>
       <c r="K19">
-        <v>1.048417493393711</v>
+        <v>1.023076990659375</v>
       </c>
       <c r="L19">
-        <v>1.046052536913731</v>
+        <v>1.006482268544175</v>
       </c>
       <c r="M19">
-        <v>1.057102362938331</v>
+        <v>1.025682675608606</v>
       </c>
       <c r="N19">
-        <v>1.018726568030909</v>
+        <v>1.006173780076841</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03848786820835</v>
+        <v>0.9802051856744232</v>
       </c>
       <c r="D20">
-        <v>1.04477743163807</v>
+        <v>1.007485772875024</v>
       </c>
       <c r="E20">
-        <v>1.042309959218832</v>
+        <v>0.9901697468752751</v>
       </c>
       <c r="F20">
-        <v>1.053440644808367</v>
+        <v>1.009906100776979</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039825968990221</v>
+        <v>1.042484976079112</v>
       </c>
       <c r="J20">
-        <v>1.044667268797053</v>
+        <v>1.008521082508214</v>
       </c>
       <c r="K20">
-        <v>1.048120591696083</v>
+        <v>1.021398258845868</v>
       </c>
       <c r="L20">
-        <v>1.045661602799112</v>
+        <v>1.004387680238588</v>
       </c>
       <c r="M20">
-        <v>1.056754365324542</v>
+        <v>1.023776971474285</v>
       </c>
       <c r="N20">
-        <v>1.018605354501012</v>
+        <v>1.005495670027116</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036944592956773</v>
+        <v>0.9713496217909664</v>
       </c>
       <c r="D21">
-        <v>1.043601028914892</v>
+        <v>1.000814316479951</v>
       </c>
       <c r="E21">
-        <v>1.040826860787015</v>
+        <v>0.9820569289387728</v>
       </c>
       <c r="F21">
-        <v>1.052099918812514</v>
+        <v>1.002471264627153</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039419825347592</v>
+        <v>1.039425926033322</v>
       </c>
       <c r="J21">
-        <v>1.043523594966568</v>
+        <v>1.002096038410026</v>
       </c>
       <c r="K21">
-        <v>1.047153106827223</v>
+        <v>1.015780277791897</v>
       </c>
       <c r="L21">
-        <v>1.044389127390744</v>
+        <v>0.99738640298105</v>
       </c>
       <c r="M21">
-        <v>1.055621152149464</v>
+        <v>1.017405968909761</v>
       </c>
       <c r="N21">
-        <v>1.018210252728678</v>
+        <v>1.00322660291653</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035973238776411</v>
+        <v>0.9655791962149118</v>
       </c>
       <c r="D22">
-        <v>1.042860288271819</v>
+        <v>0.9964747299304033</v>
       </c>
       <c r="E22">
-        <v>1.03989375992609</v>
+        <v>0.9767805748151805</v>
       </c>
       <c r="F22">
-        <v>1.051256124090332</v>
+        <v>0.997637622563833</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039162253991785</v>
+        <v>1.037419256175034</v>
       </c>
       <c r="J22">
-        <v>1.042803070415905</v>
+        <v>0.9979081848813144</v>
       </c>
       <c r="K22">
-        <v>1.046543087070916</v>
+        <v>1.012116348090661</v>
       </c>
       <c r="L22">
-        <v>1.043587892783454</v>
+        <v>0.9928264863254551</v>
       </c>
       <c r="M22">
-        <v>1.054907229358055</v>
+        <v>1.013256024328926</v>
       </c>
       <c r="N22">
-        <v>1.017961044893762</v>
+        <v>1.001747025831715</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036488272009132</v>
+        <v>0.9686584335345629</v>
       </c>
       <c r="D23">
-        <v>1.043253073218876</v>
+        <v>0.9987896508373061</v>
       </c>
       <c r="E23">
-        <v>1.040388474432551</v>
+        <v>0.979595172649991</v>
       </c>
       <c r="F23">
-        <v>1.051703515225689</v>
+        <v>1.000215864694715</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039299007669271</v>
+        <v>1.038491274603634</v>
       </c>
       <c r="J23">
-        <v>1.043185172932456</v>
+        <v>1.00014299589688</v>
       </c>
       <c r="K23">
-        <v>1.046866634456044</v>
+        <v>1.014071754750146</v>
       </c>
       <c r="L23">
-        <v>1.044012755494061</v>
+        <v>0.9952595162770009</v>
       </c>
       <c r="M23">
-        <v>1.055285829665999</v>
+        <v>1.015470334100901</v>
       </c>
       <c r="N23">
-        <v>1.018093230119039</v>
+        <v>1.002536635078261</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03851372427041</v>
+        <v>0.9803504331830557</v>
       </c>
       <c r="D24">
-        <v>1.044797135947185</v>
+        <v>1.0075953078832</v>
       </c>
       <c r="E24">
-        <v>1.042334813419628</v>
+        <v>0.9903029682184956</v>
       </c>
       <c r="F24">
-        <v>1.053463108502424</v>
+        <v>1.010028211611333</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039832740640522</v>
+        <v>1.04253492257265</v>
       </c>
       <c r="J24">
-        <v>1.044686418312644</v>
+        <v>1.008626437129083</v>
       </c>
       <c r="K24">
-        <v>1.048136782710215</v>
+        <v>1.021490341491091</v>
       </c>
       <c r="L24">
-        <v>1.045682916335151</v>
+        <v>1.004502541850288</v>
       </c>
       <c r="M24">
-        <v>1.056773339852362</v>
+        <v>1.02388147991583</v>
       </c>
       <c r="N24">
-        <v>1.018611965102463</v>
+        <v>1.005532865185577</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040859821069096</v>
+        <v>0.9931291706078719</v>
       </c>
       <c r="D25">
-        <v>1.046584294172724</v>
+        <v>1.01724463077731</v>
       </c>
       <c r="E25">
-        <v>1.044590890815755</v>
+        <v>1.002043458895464</v>
       </c>
       <c r="F25">
-        <v>1.055501536060084</v>
+        <v>1.020791471569194</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04044252166813</v>
+        <v>1.046896110678024</v>
       </c>
       <c r="J25">
-        <v>1.046422334074884</v>
+        <v>1.017889998872916</v>
       </c>
       <c r="K25">
-        <v>1.049603312763479</v>
+        <v>1.029581016769677</v>
       </c>
       <c r="L25">
-        <v>1.047616046717809</v>
+        <v>1.014610135404579</v>
       </c>
       <c r="M25">
-        <v>1.058493409584187</v>
+        <v>1.033075378158868</v>
       </c>
       <c r="N25">
-        <v>1.019210520515105</v>
+        <v>1.008801296906604</v>
       </c>
     </row>
   </sheetData>
